--- a/Problem_C_Data_Wordle.xlsx
+++ b/Problem_C_Data_Wordle.xlsx
@@ -2083,9 +2083,9 @@
   <dimension ref="B1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
